--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Dropbox (UC Berkeley Biostat)/LEMMA_shared/JS code branch/lemma input and output/CAcounties/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A9C922-6DD6-B64D-BE7A-5D98F1FB9CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CECA0-C1C9-294E-9CD1-E28708034BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1048,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>43992</v>
+        <v>43927</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="3">
         <v>7</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>44006</v>
+        <v>43941</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -1192,6 +1192,86 @@
         <v>7</v>
       </c>
       <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>43955</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1202,7 +1282,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
@@ -4810,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13CECA0-C1C9-294E-9CD1-E28708034BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2949DD5-687D-6644-9522-A0A4A363A4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>43927</v>
+        <v>43920</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>43941</v>
+        <v>43934</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>43955</v>
+        <v>43948</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>43969</v>
+        <v>43962</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -1237,13 +1237,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>43983</v>
+        <v>43976</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="3">
         <v>0.5</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>43997</v>
+        <v>43990</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="3">
         <v>7</v>
@@ -4890,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5019,7 +5019,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="3">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>250</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2949DD5-687D-6644-9522-A0A4A363A4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7D71B-28D4-A747-A184-A498C7B0E47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -285,6 +285,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -453,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,6 +565,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1030,6 +1034,9 @@
       <c r="D10" s="4">
         <v>0.05</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="44"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4890,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7D71B-28D4-A747-A184-A498C7B0E47C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B4AED-9F6A-3B4F-8B4B-6447617C8BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -534,6 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,7 +566,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1036,7 +1036,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="44"/>
+      <c r="C11" s="35"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1069,18 +1069,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -1393,40 +1393,40 @@
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="37" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -4800,10 +4800,10 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="44"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5048,7 +5048,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
         <v>0.8</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3B4AED-9F6A-3B4F-8B4B-6447617C8BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC0E63-628F-1F4B-ABBC-99BC08711430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44058</v>
+        <v>44119</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC0E63-628F-1F4B-ABBC-99BC08711430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04963DCC-C86A-084E-9B86-5DEB032AFAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04963DCC-C86A-084E-9B86-5DEB032AFAFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA44999F-8D5F-EE46-B531-F66F9D97E722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4897,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5003,7 +5003,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C8">
         <v>1000</v>
@@ -5037,7 +5037,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -5048,7 +5048,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
         <v>0.8</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA44999F-8D5F-EE46-B531-F66F9D97E722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443728FA-7B0C-7441-A9EC-48D7848BF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -5037,7 +5037,7 @@
         <v>40</v>
       </c>
       <c r="B11" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -5048,7 +5048,7 @@
         <v>41</v>
       </c>
       <c r="B12" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
         <v>0.8</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443728FA-7B0C-7441-A9EC-48D7848BF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCE929-85BD-0D4A-AE0F-B4EFCD2C0802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44119</v>
+        <v>44180</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCE929-85BD-0D4A-AE0F-B4EFCD2C0802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789BD18-BD13-BA4C-83CE-A088C2574790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1306,7 +1306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4927,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>12346</v>
+        <v>12347</v>
       </c>
       <c r="C2" s="1">
         <v>12345</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789BD18-BD13-BA4C-83CE-A088C2574790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529D0AF-BD60-E841-A93B-A729CDF89122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -4927,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>12347</v>
+        <v>12345</v>
       </c>
       <c r="C2" s="1">
         <v>12345</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529D0AF-BD60-E841-A93B-A729CDF89122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDC1C2-4D77-2649-A6ED-EA92641A5389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -4898,7 +4898,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5026,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>250</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABDC1C2-4D77-2649-A6ED-EA92641A5389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D725C8-F190-5241-8897-8438C5EA774D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44180</v>
+        <v>44228</v>
       </c>
     </row>
   </sheetData>
@@ -4897,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D725C8-F190-5241-8897-8438C5EA774D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB79250-12A1-044D-92DC-F61B91240609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -1307,7 +1307,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44228</v>
+        <v>44256</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB79250-12A1-044D-92DC-F61B91240609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774482A2-42FC-F647-87AC-0B193FCF3C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3900" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="7820" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1015,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="D9" s="4">
         <v>0.02</v>
@@ -1029,7 +1029,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="4">
         <v>0.05</v>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>43897</v>
+        <v>43905</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1143,144 +1143,60 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>43907</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>43920</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>43934</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>43948</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>43962</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>43976</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>43990</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1306,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4897,7 +4813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774482A2-42FC-F647-87AC-0B193FCF3C22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392E583-5DC7-9E4A-AA96-9E7DDA038ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44256</v>
+        <v>44287</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392E583-5DC7-9E4A-AA96-9E7DDA038ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74824254-2E7D-A54C-8CCC-CE0DC986DD14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74824254-2E7D-A54C-8CCC-CE0DC986DD14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2B163-4F02-554C-90A7-1C56AAF239C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
@@ -1273,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44287</v>
+        <v>44378</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B2B163-4F02-554C-90A7-1C56AAF239C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96B37A-8A55-4344-9DD1-4701528CF3DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PUI Details" sheetId="7" r:id="rId5"/>
     <sheet name="Internal" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,60 +1143,184 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="5">
+        <v>43936</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="5">
+        <v>44027</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="5">
+        <v>44058</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="5">
+        <v>44089</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="5">
+        <v>44119</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>44150</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>44180</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1205,7 +1329,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A11" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A13" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
@@ -1222,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC96B37A-8A55-4344-9DD1-4701528CF3DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A1711-6B98-F24A-8EC3-B10A139F8A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="3820" windowWidth="29440" windowHeight="17100" activeTab="1" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="1040" yWindow="3340" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="PUI Details" sheetId="7" r:id="rId5"/>
     <sheet name="Internal" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Cumulative Hospitalizations</t>
   </si>
   <si>
-    <t>total admits to date</t>
-  </si>
-  <si>
     <t>PUI</t>
   </si>
   <si>
@@ -143,21 +140,6 @@
     <t>Mortality Rate among ICU COVID-19 Patients</t>
   </si>
   <si>
-    <t>iter</t>
-  </si>
-  <si>
-    <t>cores</t>
-  </si>
-  <si>
-    <t>refresh</t>
-  </si>
-  <si>
-    <t>max_treedepth</t>
-  </si>
-  <si>
-    <t>adapt_delta</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>0 = FALSE, 1 = TRUE</t>
   </si>
   <si>
-    <t>blank = use detectCores()</t>
-  </si>
-  <si>
     <t>[blank]</t>
   </si>
   <si>
@@ -218,9 +197,6 @@
     <t>deaths.conf</t>
   </si>
   <si>
-    <t>cum.admits.conf</t>
-  </si>
-  <si>
     <t>hosp.pui</t>
   </si>
   <si>
@@ -230,9 +206,6 @@
     <t>deaths.pui</t>
   </si>
   <si>
-    <t>cum.admits.pui</t>
-  </si>
-  <si>
     <t>mu_t_inter</t>
   </si>
   <si>
@@ -266,19 +239,70 @@
     <t>deaths</t>
   </si>
   <si>
-    <t>cum.admits</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fraction of PUI that are COVID+ </t>
   </si>
   <si>
     <t>PUI = Persons Under Investigation</t>
   </si>
   <si>
-    <t>If PUIs are not used on the Data sheet, Mean and Standard Deviation for that category will be ignored</t>
-  </si>
-  <si>
     <t>lambda_ini_exposed</t>
+  </si>
+  <si>
+    <t>automatic.interventions</t>
+  </si>
+  <si>
+    <t>frac_tested</t>
+  </si>
+  <si>
+    <t>admits</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>seroprev</t>
+  </si>
+  <si>
+    <t>admits.conf</t>
+  </si>
+  <si>
+    <t>admits.pui</t>
+  </si>
+  <si>
+    <t>New Admits</t>
+  </si>
+  <si>
+    <t>optimize.iter</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Seroprevalence</t>
+  </si>
+  <si>
+    <t>Fraction of true positives tested</t>
+  </si>
+  <si>
+    <t>If PUIs are not used on the Data sheet, Mean for that category will be ignored</t>
+  </si>
+  <si>
+    <t>hide.nonpublic.data</t>
+  </si>
+  <si>
+    <t>if 1, remove oberved seroprev from output (nonpublic data)</t>
+  </si>
+  <si>
+    <t>duration_mort_nonhosp</t>
+  </si>
+  <si>
+    <t>Average length of time after infectious that patients die out of hospital (days)</t>
+  </si>
+  <si>
+    <t>frac_mort_nonhosp</t>
+  </si>
+  <si>
+    <t>Fraction of infected that die outside of hospital</t>
   </si>
 </sst>
 </file>
@@ -286,7 +310,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -378,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -427,36 +451,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -512,7 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -531,10 +530,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -558,12 +560,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,37 +877,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF7E970-76F8-6942-B4A0-7B2C1D2884B8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29" style="29" customWidth="1"/>
     <col min="2" max="2" width="62.5" style="2" customWidth="1"/>
     <col min="3" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>73</v>
+      <c r="A2" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>11</v>
@@ -924,8 +920,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>74</v>
+      <c r="A3" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>0</v>
@@ -934,12 +930,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>45</v>
+      <c r="A4" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>1</v>
@@ -948,12 +944,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>46</v>
+      <c r="A5" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>2</v>
@@ -962,81 +958,120 @@
         <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>47</v>
+      <c r="A6" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>48</v>
+      <c r="A7" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>44</v>
+      <c r="A8" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.04</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="D9" s="34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.18</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="4">
-        <v>0.5</v>
+        <v>0.21</v>
       </c>
       <c r="D10" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="35"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1044,7 +1079,7 @@
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D10 C8:D8" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D11" xr:uid="{9F0C0177-DE3E-1444-856B-A1A4910CD57E}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
@@ -1055,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5372A5C3-523B-5F40-A7DB-9F78D72AADAB}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,56 +1105,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D1" s="36"/>
       <c r="E1" s="36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>72</v>
+    <row r="2" spans="1:6" s="27" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,10 +1165,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <f>1/3.3</f>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D4" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E4" s="3">
         <v>7</v>
@@ -1143,184 +1179,43 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>43936</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
+      <c r="A5" s="33"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>43966</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
+      <c r="A6" s="33"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>43997</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>2</v>
-      </c>
+      <c r="A7" s="33"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>44027</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
+      <c r="A8" s="33"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>44058</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2</v>
-      </c>
+      <c r="A9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>44089</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2</v>
-      </c>
+      <c r="A10" s="33"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>44119</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
+      <c r="A11" s="33"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>44150</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
+      <c r="A12" s="33"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>44180</v>
-      </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
+      <c r="A13" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1329,7 +1224,7 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A13" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{55857FF0-8ABD-E94F-8530-47F7128019AC}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
@@ -1417,7 +1312,7 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1341,7 @@
       </c>
       <c r="G1" s="41"/>
       <c r="H1" s="37" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I1" s="37"/>
     </row>
@@ -1464,7 +1359,7 @@
       </c>
       <c r="G2" s="42"/>
       <c r="H2" s="38" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="I2" s="38"/>
     </row>
@@ -1476,54 +1371,54 @@
         <v>31</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>66</v>
+      <c r="B4" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4812,10 +4707,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE078372-B08E-3945-8236-75FE2E0407AC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4823,45 +4718,40 @@
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="44"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>25</v>
@@ -4869,13 +4759,10 @@
       <c r="C6" s="4">
         <v>0.3</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>76</v>
+    </row>
+    <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>26</v>
@@ -4883,13 +4770,10 @@
       <c r="C7" s="4">
         <v>0.3</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
-        <v>77</v>
+    </row>
+    <row r="8" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -4897,13 +4781,10 @@
       <c r="C8" s="4">
         <v>0.3</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>78</v>
+    </row>
+    <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -4911,20 +4792,34 @@
       <c r="C9" s="4">
         <v>0.3</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:D4"/>
-  </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D9" xr:uid="{16C39E30-A382-9841-B9C1-7BE92A80BACE}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C11" xr:uid="{16C39E30-A382-9841-B9C1-7BE92A80BACE}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
@@ -4935,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4956,7 +4851,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -4978,8 +4873,8 @@
         <v>16</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="27" t="s">
-        <v>55</v>
+      <c r="C3" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -4996,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5006,7 +4901,7 @@
       <c r="B5" s="9">
         <v>43877</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>43877</v>
       </c>
     </row>
@@ -5021,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5035,74 +4930,45 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>37</v>
+      <c r="A8" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>39</v>
+      <c r="A10" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>250</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
-        <v>40</v>
+      <c r="A11" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B11" s="3">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="C12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3A1711-6B98-F24A-8EC3-B10A139F8A23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AF8E1B-26AC-6548-A299-6E29F21528F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3340" windowWidth="29440" windowHeight="17100" activeTab="5" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
+    <workbookView xWindow="1040" yWindow="3340" windowWidth="29440" windowHeight="17100" activeTab="2" xr2:uid="{50240998-A895-7F42-B834-945925070EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1241,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCB5455-61A0-9A48-A110-20902745EBF4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1292,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8">
-        <v>44378</v>
+        <v>44531</v>
       </c>
     </row>
   </sheetData>
@@ -4832,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD5F9C-4676-5749-AB11-9739EC646DB2}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA5A1D5-39B5-3549-9E3F-83298C9C34FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA064B45-A79E-CA4A-814D-AD3665A67053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,6 +865,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2054,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2656,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2705,7 +2709,7 @@
       </c>
       <c r="P1" s="74"/>
     </row>
-    <row r="2" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="81" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
@@ -2730,22 +2734,22 @@
       <c r="H2" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>138</v>
       </c>
       <c r="O2" s="29" t="s">
@@ -2831,22 +2835,22 @@
         <v>1</v>
       </c>
       <c r="I4" s="66">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J4" s="66">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K4" s="66">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L4" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M4" s="66">
         <v>0.9</v>
       </c>
-      <c r="M4" s="66">
-        <v>0.98</v>
-      </c>
       <c r="N4" s="66">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O4" s="10">
         <v>5</v>
@@ -2881,22 +2885,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="66">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="66">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K5" s="66">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L5" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="66">
         <v>0.9</v>
       </c>
-      <c r="M5" s="66">
-        <v>0.98</v>
-      </c>
       <c r="N5" s="66">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="O5" s="10">
         <v>5</v>
@@ -2907,16 +2911,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11">
         <v>44221</v>
       </c>
       <c r="C6" s="10">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -2925,57 +2929,57 @@
         <v>1</v>
       </c>
       <c r="G6" s="10">
-        <v>1</v>
+        <v>1.034</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="I6" s="66">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="66">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K6" s="66">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="L6" s="66">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="M6" s="66">
         <v>0.9</v>
       </c>
       <c r="N6" s="66">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O6" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B7" s="11">
         <v>44221</v>
       </c>
       <c r="C7" s="10">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D7" s="10">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="E7" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10">
         <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.034</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -2984,30 +2988,30 @@
         <v>0.6</v>
       </c>
       <c r="J7" s="66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K7" s="66">
         <v>0.5</v>
       </c>
       <c r="L7" s="66">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="M7" s="66">
-        <v>0.98</v>
+        <v>0.7</v>
       </c>
       <c r="N7" s="66">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="O7" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B8" s="11">
         <v>44221</v>
@@ -3016,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -3031,29 +3035,37 @@
         <v>1</v>
       </c>
       <c r="I8" s="66">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J8" s="66">
         <v>0.7</v>
       </c>
       <c r="K8" s="66">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="66">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="66">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N8" s="66">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="O8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="10">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA064B45-A79E-CA4A-814D-AD3665A67053}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4BD287-7B27-214C-893A-884021F18AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -765,40 +765,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -852,9 +826,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -869,6 +840,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,7 +1320,7 @@
       <c r="C9" s="4">
         <v>0.04</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="B13" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D13" s="4">
@@ -1527,30 +1527,30 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="B11" s="59"/>
-    </row>
-    <row r="12" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="51"/>
+    </row>
+    <row r="12" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-    </row>
-    <row r="13" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+    </row>
+    <row r="13" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-    </row>
-    <row r="14" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+    </row>
+    <row r="14" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="60"/>
-    </row>
-    <row r="15" spans="1:4" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="58"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="52"/>
+    </row>
+    <row r="15" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="50"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1587,18 +1587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="74"/>
+      <c r="E1" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="31"/>
+      <c r="F1" s="74"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7">
-        <v>44682</v>
+        <v>44531</v>
       </c>
     </row>
   </sheetData>
@@ -1756,151 +1756,151 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="46" customWidth="1"/>
     <col min="4" max="7" width="12.83203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="46" customWidth="1"/>
     <col min="10" max="10" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="18"/>
-    <col min="12" max="12" width="10.83203125" style="55"/>
+    <col min="12" max="12" width="10.83203125" style="47"/>
     <col min="13" max="13" width="10.83203125" style="18"/>
-    <col min="14" max="16384" width="10.83203125" style="56"/>
+    <col min="14" max="16384" width="10.83203125" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="38" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40" t="s">
+      <c r="M1" s="75"/>
+    </row>
+    <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="41" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2027,17 +2027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2086,147 +2086,147 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="63">
+      <c r="A3" s="55">
         <v>0</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="58">
         <v>0</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11">
         <v>44562</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="64">
+      <c r="A4" s="56">
         <v>5</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="58">
         <v>0</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11">
         <v>44562</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="64">
+      <c r="A5" s="56">
         <v>12</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="58">
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>44440</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64">
+      <c r="A6" s="56">
         <v>16</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="58">
         <v>0.13</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11">
         <v>44166</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="A7" s="56">
         <v>30</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="58">
         <v>0.14000000000000001</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11">
         <v>44166</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64">
+      <c r="A8" s="56">
         <v>40</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="58">
         <v>0.13</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
         <v>44166</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64">
+      <c r="A9" s="56">
         <v>50</v>
       </c>
-      <c r="B9" s="66">
+      <c r="B9" s="58">
         <v>0.19</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11">
         <v>44166</v>
       </c>
-      <c r="E9" s="66">
+      <c r="E9" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64">
+      <c r="A10" s="56">
         <v>65</v>
       </c>
-      <c r="B10" s="66">
+      <c r="B10" s="58">
         <v>0.23</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
         <v>44166</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="64">
+      <c r="A11" s="56">
         <v>75</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="58">
         <f>0.65*0.18</f>
         <v>0.11699999999999999</v>
       </c>
@@ -2234,15 +2234,15 @@
       <c r="D11" s="11">
         <v>44166</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="64">
+      <c r="A12" s="56">
         <v>85</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="58">
         <f>0.35*0.18</f>
         <v>6.3E-2</v>
       </c>
@@ -2250,14 +2250,14 @@
       <c r="D12" s="11">
         <v>44166</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="58">
         <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2276,7 +2276,7 @@
   <cols>
     <col min="1" max="1" width="11.1640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="68" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2314,231 +2314,231 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
-      <c r="C4" s="76"/>
+      <c r="C4" s="67"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
-      <c r="C5" s="76"/>
+      <c r="C5" s="67"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="C6" s="76"/>
+      <c r="C6" s="67"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
-      <c r="C7" s="76"/>
+      <c r="C7" s="67"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="C8" s="76"/>
+      <c r="C8" s="67"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
-      <c r="C9" s="76"/>
+      <c r="C9" s="67"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="67"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="C11" s="76"/>
+      <c r="C11" s="67"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="67"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
-      <c r="C13" s="76"/>
+      <c r="C13" s="67"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="67"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
-      <c r="C15" s="76"/>
+      <c r="C15" s="67"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="C17" s="76"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
+      <c r="A20" s="71"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="80"/>
+      <c r="A21" s="71"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
+      <c r="A22" s="71"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
+      <c r="A23" s="71"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
+      <c r="A24" s="71"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="80"/>
+      <c r="A25" s="71"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="80"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="80"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="80"/>
+      <c r="A31" s="71"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="80"/>
+      <c r="A32" s="71"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
+      <c r="A33" s="71"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
+      <c r="A34" s="71"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
+      <c r="A35" s="71"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
+      <c r="A36" s="71"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
+      <c r="A37" s="71"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
+      <c r="A38" s="71"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
+      <c r="A39" s="71"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
+      <c r="A40" s="71"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
+      <c r="A41" s="71"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
+      <c r="A42" s="71"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
+      <c r="A43" s="71"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
+      <c r="A44" s="71"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
+      <c r="A45" s="71"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
+      <c r="A46" s="71"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
+      <c r="A47" s="71"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
+      <c r="A48" s="71"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
+      <c r="A49" s="71"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
+      <c r="A50" s="71"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
+      <c r="A51" s="71"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
+      <c r="A52" s="71"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
+      <c r="A53" s="71"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
+      <c r="A54" s="71"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
+      <c r="A55" s="71"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
+      <c r="A56" s="71"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
+      <c r="A57" s="71"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
+      <c r="A58" s="71"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
+      <c r="A59" s="71"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
+      <c r="A60" s="71"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
+      <c r="A61" s="71"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="80"/>
+      <c r="A62" s="71"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="80"/>
+      <c r="A63" s="71"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="80"/>
+      <c r="A64" s="71"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="80"/>
+      <c r="A65" s="71"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="80"/>
+      <c r="A66" s="71"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="80"/>
+      <c r="A67" s="71"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="80"/>
+      <c r="A68" s="71"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="80"/>
+      <c r="A69" s="71"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="80"/>
+      <c r="A70" s="71"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="80"/>
+      <c r="A71" s="71"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="80"/>
+      <c r="A72" s="71"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="80"/>
+      <c r="A73" s="71"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="80"/>
+      <c r="A74" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2559,9 +2559,9 @@
     <col min="2" max="2" width="68.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.5" style="63" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="63" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" style="63" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="55" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" style="55" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
@@ -2581,10 +2581,10 @@
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="62" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2645,12 +2645,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="69"/>
+      <c r="B12" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2662,54 +2662,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="63" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="63" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="63" customWidth="1"/>
-    <col min="7" max="8" width="13" style="63" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="63"/>
-    <col min="10" max="10" width="8.83203125" style="63" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="63"/>
-    <col min="12" max="12" width="11.33203125" style="63" customWidth="1"/>
-    <col min="13" max="14" width="12.6640625" style="63" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="63" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="63" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="63"/>
+    <col min="1" max="1" width="10.6640625" style="55" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="55" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="55" customWidth="1"/>
+    <col min="7" max="8" width="13" style="55" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="55"/>
+    <col min="10" max="10" width="8.83203125" style="55" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" style="55"/>
+    <col min="12" max="12" width="11.33203125" style="55" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" style="55" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="55" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="55" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="71" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="63" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32" t="s">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="74" t="s">
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="74"/>
-    </row>
-    <row r="2" spans="1:16" s="81" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="P1" s="81"/>
+    </row>
+    <row r="2" spans="1:16" s="72" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>70</v>
       </c>
@@ -2759,53 +2759,53 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="72" t="s">
+      <c r="I3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="72" t="s">
+      <c r="M3" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="72" t="s">
+      <c r="N3" s="64" t="s">
         <v>142</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="72" t="s">
+      <c r="P3" s="64" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2819,13 +2819,13 @@
       <c r="C4" s="10">
         <v>0.45</v>
       </c>
-      <c r="D4" s="65">
+      <c r="D4" s="57">
         <v>1</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="57">
         <v>1</v>
       </c>
-      <c r="F4" s="65">
+      <c r="F4" s="57">
         <v>1</v>
       </c>
       <c r="G4" s="10">
@@ -2834,22 +2834,22 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="58">
         <v>0.75</v>
       </c>
-      <c r="J4" s="66">
+      <c r="J4" s="58">
         <v>0.9</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="58">
         <v>0.67</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="58">
         <v>0.75</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="58">
         <v>0.9</v>
       </c>
-      <c r="N4" s="66">
+      <c r="N4" s="58">
         <v>0.85</v>
       </c>
       <c r="O4" s="10">
@@ -2884,22 +2884,22 @@
       <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="58">
         <v>0.75</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="58">
         <v>0.9</v>
       </c>
-      <c r="K5" s="66">
+      <c r="K5" s="58">
         <v>0.67</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="58">
         <v>0.75</v>
       </c>
-      <c r="M5" s="66">
+      <c r="M5" s="58">
         <v>0.9</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="58">
         <v>0.85</v>
       </c>
       <c r="O5" s="10">
@@ -2934,22 +2934,22 @@
       <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="58">
         <v>0.75</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="58">
         <v>0.9</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="58">
         <v>0.67</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="58">
         <v>0.75</v>
       </c>
-      <c r="M6" s="66">
+      <c r="M6" s="58">
         <v>0.9</v>
       </c>
-      <c r="N6" s="66">
+      <c r="N6" s="58">
         <v>0.85</v>
       </c>
       <c r="O6" s="10">
@@ -2984,22 +2984,22 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="58">
         <v>0.6</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="58">
         <v>0.7</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="58">
         <v>0.5</v>
       </c>
-      <c r="L7" s="66">
+      <c r="L7" s="58">
         <v>0.6</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="58">
         <v>0.7</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="58">
         <v>0.67</v>
       </c>
       <c r="O7" s="10">
@@ -3034,22 +3034,22 @@
       <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="58">
         <v>0.6</v>
       </c>
-      <c r="J8" s="66">
+      <c r="J8" s="58">
         <v>0.7</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="58">
         <v>0.5</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="58">
         <v>0.6</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="58">
         <v>0.7</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="58">
         <v>0.67</v>
       </c>
       <c r="O8" s="10">
@@ -3060,12 +3060,12 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3108,7 +3108,7 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="54" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4BD287-7B27-214C-893A-884021F18AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC94A40-7676-9A40-8493-4D347727AFF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -843,22 +843,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1770,53 +1770,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="75" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="75"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2027,17 +2027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2167,7 +2167,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="58">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11">
@@ -2182,7 +2182,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="58">
-        <v>0.13</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11">
@@ -2197,7 +2197,7 @@
         <v>50</v>
       </c>
       <c r="B9" s="58">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11">
@@ -2212,7 +2212,7 @@
         <v>65</v>
       </c>
       <c r="B10" s="58">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
@@ -2227,8 +2227,8 @@
         <v>75</v>
       </c>
       <c r="B11" s="58">
-        <f>0.65*0.18</f>
-        <v>0.11699999999999999</v>
+        <f>0.65*0.16</f>
+        <v>0.10400000000000001</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11">
@@ -2243,8 +2243,8 @@
         <v>85</v>
       </c>
       <c r="B12" s="58">
-        <f>0.35*0.18</f>
-        <v>6.3E-2</v>
+        <f>0.35*0.16</f>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11">
@@ -2663,7 +2663,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC94A40-7676-9A40-8493-4D347727AFF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A08D3-0ADF-1C42-8868-E0923B44800D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20A08D3-0ADF-1C42-8868-E0923B44800D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E8ED1F-7B62-3B45-B982-64BD6B0D8522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2549,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2596,10 +2596,10 @@
         <v>93</v>
       </c>
       <c r="C3" s="22">
-        <v>44256</v>
+        <v>44296</v>
       </c>
       <c r="D3" s="22">
-        <v>44287</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2610,10 +2610,10 @@
         <v>96</v>
       </c>
       <c r="C4" s="19">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="D4" s="19">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2624,10 +2624,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="21">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D5" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2638,10 +2638,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="D6" s="19">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E8ED1F-7B62-3B45-B982-64BD6B0D8522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA2A9F4-BDEF-3F46-A507-74B5CB5DA039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
-        <v>44440</v>
+        <v>44317</v>
       </c>
       <c r="E5" s="58">
         <v>0</v>
@@ -2549,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA2A9F4-BDEF-3F46-A507-74B5CB5DA039}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0CCF3-1F72-4741-9CE5-D84480E53887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -843,22 +843,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1770,53 +1770,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="77"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2027,17 +2027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,7 +2114,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,7 +2129,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>44317</v>
       </c>
       <c r="E5" s="58">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C0CCF3-1F72-4741-9CE5-D84480E53887}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD534A77-DC49-D442-87BE-F791FA330358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1724,7 +1724,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7">
-        <v>44531</v>
+        <v>44682</v>
       </c>
     </row>
   </sheetData>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD534A77-DC49-D442-87BE-F791FA330358}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7228B3-B5C5-824F-AA72-13D30707007E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -843,22 +843,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1770,53 +1770,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="75" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="75"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2027,17 +2027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="E5" s="58">
         <v>0.7</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7228B3-B5C5-824F-AA72-13D30707007E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C113C8-4FD0-2644-BC7C-DAD7943CBF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2114,7 +2114,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,7 +2129,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2144,7 +2144,7 @@
         <v>44348</v>
       </c>
       <c r="E5" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2159,7 +2159,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2174,7 +2174,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2204,7 +2204,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2219,7 +2219,7 @@
         <v>44166</v>
       </c>
       <c r="E10" s="58">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2235,7 +2235,7 @@
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2596,10 +2596,10 @@
         <v>93</v>
       </c>
       <c r="C3" s="22">
-        <v>44296</v>
+        <v>44317</v>
       </c>
       <c r="D3" s="22">
-        <v>44299</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2610,10 +2610,10 @@
         <v>96</v>
       </c>
       <c r="C4" s="19">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>82</v>
       </c>
       <c r="C5" s="21">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="19">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C113C8-4FD0-2644-BC7C-DAD7943CBF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D2D9C-C4C0-7247-863B-9E0BC53536CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -843,22 +843,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1770,53 +1770,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="75"/>
+      <c r="L1" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="77"/>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="75" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="77"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2027,17 +2027,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
-        <v>44348</v>
+        <v>44331</v>
       </c>
       <c r="E5" s="58">
         <v>0.75</v>
@@ -2219,7 +2219,7 @@
         <v>44166</v>
       </c>
       <c r="E10" s="58">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2235,7 +2235,7 @@
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D2D9C-C4C0-7247-863B-9E0BC53536CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261772EB-FE8B-844C-B79E-A9D0566859DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2058,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2662,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261772EB-FE8B-844C-B79E-A9D0566859DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A939F0D-A164-634A-90D3-72318EDE29C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2058,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="E5" s="58">
         <v>0.75</v>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A939F0D-A164-634A-90D3-72318EDE29C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509B38B-D3BF-394D-B7AD-2A40A2817C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>duration_natural_years</t>
+  </si>
+  <si>
+    <t>IN</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -702,12 +705,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,22 +857,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -869,6 +883,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,53 +1786,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="75" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="75" t="s">
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="75"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="76" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="79" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="76" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="77"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2027,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2058,7 +2074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2662,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3059,6 +3075,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44221</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="83">
+        <v>2.25</v>
+      </c>
+      <c r="E9" s="83">
+        <v>1</v>
+      </c>
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83">
+        <v>1</v>
+      </c>
+      <c r="H9" s="83">
+        <v>1</v>
+      </c>
+      <c r="I9" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="84">
+        <v>0.85</v>
+      </c>
+      <c r="K9" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="84">
+        <v>0.85</v>
+      </c>
+      <c r="N9" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="O9" s="83">
+        <v>5</v>
+      </c>
+      <c r="P9" s="83">
+        <v>5</v>
+      </c>
+    </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4509B38B-D3BF-394D-B7AD-2A40A2817C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D1755-B83D-B340-B550-2E0065761C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,26 +854,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,8 +885,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1603,18 +1603,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="74"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1786,10 +1786,10 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="76"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
@@ -1798,10 +1798,10 @@
         <v>25</v>
       </c>
       <c r="G1" s="77"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="80"/>
       <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
@@ -1813,22 +1813,22 @@
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="75"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
       <c r="G2" s="79"/>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2705,25 +2705,25 @@
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="30"/>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="81"/>
+      <c r="P1" s="83"/>
     </row>
     <row r="2" spans="1:16" s="72" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="74" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="11">
@@ -3085,43 +3085,43 @@
       <c r="C9" s="10">
         <v>0</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="74">
         <v>2.25</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="74">
         <v>1</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="74">
         <v>1</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="74">
         <v>1</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="74">
         <v>1</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="75">
         <v>0.5</v>
       </c>
-      <c r="J9" s="84">
+      <c r="J9" s="75">
         <v>0.85</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="75">
         <v>0.5</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="75">
         <v>0.5</v>
       </c>
-      <c r="M9" s="84">
+      <c r="M9" s="75">
         <v>0.85</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="75">
         <v>0.5</v>
       </c>
-      <c r="O9" s="83">
+      <c r="O9" s="74">
         <v>5</v>
       </c>
-      <c r="P9" s="83">
+      <c r="P9" s="74">
         <v>5</v>
       </c>
     </row>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961D1755-B83D-B340-B550-2E0065761C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45DD49A-1802-414C-A394-B4ADC784BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3088,11 +3088,11 @@
       <c r="D9" s="74">
         <v>2.25</v>
       </c>
-      <c r="E9" s="74">
-        <v>1</v>
-      </c>
-      <c r="F9" s="74">
-        <v>1</v>
+      <c r="E9" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1.5</v>
       </c>
       <c r="G9" s="74">
         <v>1</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45DD49A-1802-414C-A394-B4ADC784BCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B5C68-5480-AB42-A7A9-4D16A62CF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -859,22 +859,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,53 +1786,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="80" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="77"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2678,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4B5C68-5480-AB42-A7A9-4D16A62CF506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC689F6-18B5-8749-BB22-296A3CA8ACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -859,22 +859,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,53 +1786,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="79"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2074,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2130,7 +2130,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,14 +2153,14 @@
         <v>12</v>
       </c>
       <c r="B5" s="58">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11">
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,14 +2228,14 @@
         <v>65</v>
       </c>
       <c r="B10" s="58">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11">
         <v>44166</v>
       </c>
       <c r="E10" s="58">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2243,15 +2243,14 @@
         <v>75</v>
       </c>
       <c r="B11" s="58">
-        <f>0.65*0.16</f>
-        <v>0.10400000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="11">
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,7 +2266,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2565,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2612,10 +2611,10 @@
         <v>93</v>
       </c>
       <c r="C3" s="22">
-        <v>44317</v>
+        <v>44351</v>
       </c>
       <c r="D3" s="22">
-        <v>44317</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2626,10 +2625,10 @@
         <v>96</v>
       </c>
       <c r="C4" s="19">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="19">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2640,10 +2639,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="21">
-        <v>0</v>
+        <v>-83</v>
       </c>
       <c r="D5" s="21">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2654,10 +2653,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="D6" s="19">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC689F6-18B5-8749-BB22-296A3CA8ACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698B096-ABB2-8743-AC1B-287740A44F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2565,7 +2565,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2611,10 +2611,10 @@
         <v>93</v>
       </c>
       <c r="C3" s="22">
-        <v>44351</v>
+        <v>44317</v>
       </c>
       <c r="D3" s="22">
-        <v>44351</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>96</v>
       </c>
       <c r="C4" s="19">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D4" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2639,10 +2639,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="21">
-        <v>-83</v>
+        <v>0</v>
       </c>
       <c r="D5" s="21">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="19">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="D6" s="19">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1698B096-ABB2-8743-AC1B-287740A44F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4BC61-26D9-594C-A940-79581D0CD023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2564,7 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2677,8 +2677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3112,7 +3112,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="75">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="N9" s="75">
         <v>0.5</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4BC61-26D9-594C-A940-79581D0CD023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448D3C0-AE42-5F4E-B466-F45166F05EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2862,7 +2862,7 @@
         <v>0.75</v>
       </c>
       <c r="M4" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="58">
         <v>0.85</v>
@@ -2912,7 +2912,7 @@
         <v>0.75</v>
       </c>
       <c r="M5" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N5" s="58">
         <v>0.85</v>
@@ -2962,7 +2962,7 @@
         <v>0.75</v>
       </c>
       <c r="M6" s="58">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N6" s="58">
         <v>0.85</v>
@@ -3112,7 +3112,7 @@
         <v>0.5</v>
       </c>
       <c r="M9" s="75">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="N9" s="75">
         <v>0.5</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448D3C0-AE42-5F4E-B466-F45166F05EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB396953-9F3D-D84E-966B-2D40F9E9FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,22 +859,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1786,53 +1786,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="80" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="77"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="35" t="s">
         <v>119</v>
       </c>
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3103,13 +3103,13 @@
         <v>0.5</v>
       </c>
       <c r="J9" s="75">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="K9" s="75">
         <v>0.5</v>
       </c>
       <c r="L9" s="75">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="M9" s="75">
         <v>0.95</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB396953-9F3D-D84E-966B-2D40F9E9FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF642F6-682F-6B42-AC24-84EEEAA91424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>Variant Name</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Hospitalization Multiplier</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Daily Increase in Number of Doses</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
     <t>Vaccine Efficacy for Susceptibility (%)</t>
   </si>
   <si>
@@ -444,12 +438,6 @@
     <t>Wild</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>J&amp;J</t>
   </si>
   <si>
@@ -519,7 +507,19 @@
     <t>duration_natural_years</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>epsilon</t>
   </si>
 </sst>
 </file>
@@ -859,22 +859,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1314,10 +1314,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4">
         <v>0.2</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="31">
         <v>5.0000000000000001E-3</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" s="3">
         <v>50000</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
@@ -1786,55 +1786,55 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="80"/>
+      <c r="J1" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="79"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="81"/>
+      <c r="J2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="77" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="35" t="s">
-        <v>119</v>
       </c>
       <c r="M2" s="36"/>
     </row>
@@ -1902,22 +1902,22 @@
         <v>54</v>
       </c>
       <c r="H4" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="K4" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="L4" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="M4" s="43" t="s">
         <v>123</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="M4" s="43" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2043,17 +2043,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2075,7 +2075,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,36 +2086,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2130,7 +2130,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2145,7 +2145,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,7 +2160,7 @@
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2190,7 +2190,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2205,7 +2205,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2300,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,13 +2314,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2583,10 +2583,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,18 +2597,18 @@
         <v>11</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="22">
         <v>44317</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19">
         <v>6000</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="21">
         <v>0</v>
@@ -2647,10 +2647,10 @@
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="19">
         <v>6000</v>
@@ -2678,7 +2678,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2710,17 +2710,17 @@
       <c r="G1" s="82"/>
       <c r="H1" s="30"/>
       <c r="I1" s="84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
       <c r="L1" s="84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M1" s="84"/>
       <c r="N1" s="84"/>
       <c r="O1" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P1" s="83"/>
     </row>
@@ -2729,104 +2729,104 @@
         <v>70</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O2" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="C3" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="F3" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>92</v>
-      </c>
       <c r="H3" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I3" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="64" t="s">
+      <c r="M3" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="M3" s="64" t="s">
-        <v>89</v>
-      </c>
       <c r="N3" s="64" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="O3" s="64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="11">
         <v>44221</v>
@@ -2859,7 +2859,7 @@
         <v>0.67</v>
       </c>
       <c r="L4" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M4" s="58">
         <v>0.95</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B5" s="11">
         <v>44221</v>
@@ -2909,7 +2909,7 @@
         <v>0.67</v>
       </c>
       <c r="L5" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M5" s="58">
         <v>0.95</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="B6" s="11">
         <v>44221</v>
@@ -2959,7 +2959,7 @@
         <v>0.67</v>
       </c>
       <c r="L6" s="58">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="M6" s="58">
         <v>0.95</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="B7" s="11">
         <v>44221</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B8" s="11">
         <v>44221</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="74" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="11">
         <v>44221</v>
@@ -3108,8 +3108,8 @@
       <c r="K9" s="75">
         <v>0.5</v>
       </c>
-      <c r="L9" s="75">
-        <v>0.8</v>
+      <c r="L9" s="58">
+        <v>0.9</v>
       </c>
       <c r="M9" s="75">
         <v>0.95</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,7 +3223,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -3234,10 +3234,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4">
         <v>0.3</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="11" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
         <v>0.3</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF642F6-682F-6B42-AC24-84EEEAA91424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D63E96-FF61-2149-9AA3-A482FEE98FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="166">
   <si>
     <t>Number of Days from Infection to Becoming Infectious (Latent Period)</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>epsilon</t>
+  </si>
+  <si>
+    <t>prior.infection.vaccine.scale</t>
+  </si>
+  <si>
+    <t>e.g. 0.8 = those with prior infection 20% less likely to get vaccinated than those without prior infection</t>
+  </si>
+  <si>
+    <t>child.transmission.scale</t>
+  </si>
+  <si>
+    <t>e.g. 0.7 = children age 0-11 are 30% less likely than adults to transmit if infected (due to biology and/or school mitigation)</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1428,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,14 +1556,27 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5</v>
+      </c>
       <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="D12" s="52" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -1589,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1676,20 +1701,44 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>44362</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>43831</formula1>
       <formula2>44196</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{0F9A4B89-EC6B-724F-B775-2FCA661AAF65}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B5" xr:uid="{0F9A4B89-EC6B-724F-B775-2FCA661AAF65}">
       <formula1>0</formula1>
       <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{5211C582-653B-1240-B539-BC7D547FCDE5}">
+      <formula1>43831</formula1>
+      <formula2>44561</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2075,7 +2124,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2250,7 +2299,7 @@
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2266,7 +2315,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2565,7 +2614,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2611,10 +2660,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="22">
-        <v>44317</v>
+        <v>44362</v>
       </c>
       <c r="D3" s="22">
-        <v>44317</v>
+        <v>44362</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2625,10 +2674,10 @@
         <v>94</v>
       </c>
       <c r="C4" s="19">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="19">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2653,10 +2702,10 @@
         <v>80</v>
       </c>
       <c r="C6" s="19">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D6" s="19">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2677,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2829,10 +2878,10 @@
         <v>133</v>
       </c>
       <c r="B4" s="11">
-        <v>44221</v>
+        <v>44242</v>
       </c>
       <c r="C4" s="10">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="57">
         <v>1</v>
@@ -2847,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I4" s="58">
         <v>0.75</v>
@@ -2879,10 +2928,10 @@
         <v>157</v>
       </c>
       <c r="B5" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C5" s="10">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D5" s="10">
         <v>1.5</v>
@@ -2894,7 +2943,7 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -2929,10 +2978,10 @@
         <v>161</v>
       </c>
       <c r="B6" s="11">
-        <v>44221</v>
+        <v>44242</v>
       </c>
       <c r="C6" s="10">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="10">
         <v>1.25</v>
@@ -2947,7 +2996,7 @@
         <v>1.034</v>
       </c>
       <c r="H6" s="10">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I6" s="58">
         <v>0.75</v>
@@ -2979,10 +3028,10 @@
         <v>160</v>
       </c>
       <c r="B7" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="10">
         <v>1.8</v>
@@ -2994,7 +3043,7 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="10">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -3029,7 +3078,7 @@
         <v>159</v>
       </c>
       <c r="B8" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -3044,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -3079,10 +3128,10 @@
         <v>158</v>
       </c>
       <c r="B9" s="11">
-        <v>44221</v>
+        <v>44362</v>
       </c>
       <c r="C9" s="10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="74">
         <v>2.25</v>
@@ -3094,10 +3143,10 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="74">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H9" s="74">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="I9" s="75">
         <v>0.5</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D63E96-FF61-2149-9AA3-A482FEE98FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E3257-9160-B140-9BDE-AE3D1C343D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="3">
         <v>0.1</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9E3257-9160-B140-9BDE-AE3D1C343D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A550703-9491-1544-86B4-2050D4AC9AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -871,22 +871,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1616,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1835,53 +1835,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="77" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="80" t="s">
+      <c r="G1" s="79"/>
+      <c r="H1" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="77" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="77"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="78" t="s">
+      <c r="E2" s="77"/>
+      <c r="F2" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="35" t="s">
         <v>117</v>
       </c>
@@ -2092,17 +2092,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2123,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2179,7 +2179,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A550703-9491-1544-86B4-2050D4AC9AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B7A7F0-E8A8-C349-85A8-3851A20BA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -871,22 +871,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1835,53 +1835,53 @@
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="79" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="79"/>
-      <c r="H1" s="78" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="79"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="80" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="81"/>
+      <c r="J2" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="35" t="s">
         <v>117</v>
       </c>
@@ -2092,17 +2092,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A43:A487 A5:A36" xr:uid="{DFFBA6CA-6EEC-F54F-9268-B981437AD2EB}">
@@ -2123,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2726,8 +2726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B7A7F0-E8A8-C349-85A8-3851A20BA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9E8E9-4F42-264F-BE18-7F736506DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1712,7 +1712,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E5" s="3">
         <v>7</v>
@@ -2726,7 +2726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D40A3-9166-4938-BDA5-A18F4C1841F8}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C9E8E9-4F42-264F-BE18-7F736506DDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE29846-22B2-7748-895B-8FA548484E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -1616,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2613,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2660,10 +2660,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="22">
-        <v>44362</v>
+        <v>44379</v>
       </c>
       <c r="D3" s="22">
-        <v>44362</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>94</v>
       </c>
       <c r="C4" s="19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="19">
         <v>100</v>
@@ -2702,7 +2702,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="19">
         <v>100</v>

--- a/Inputs/CAcounties.xlsx
+++ b/Inputs/CAcounties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/LEMMA-Forecasts/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE29846-22B2-7748-895B-8FA548484E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A378EF-7B87-6B43-8177-4B692F2FC5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="5960" windowWidth="30740" windowHeight="15040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters with Distributions" sheetId="1" r:id="rId1"/>
@@ -2123,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E08ED19-209C-1244-95CD-D0E05E30CCAF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2179,7 +2179,7 @@
         <v>44562</v>
       </c>
       <c r="E3" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
         <v>44562</v>
       </c>
       <c r="E4" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>44329</v>
       </c>
       <c r="E5" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2224,7 +2224,7 @@
         <v>44166</v>
       </c>
       <c r="E6" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>44166</v>
       </c>
       <c r="E7" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,7 +2254,7 @@
         <v>44166</v>
       </c>
       <c r="E8" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2269,7 +2269,7 @@
         <v>44166</v>
       </c>
       <c r="E9" s="58">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2299,7 +2299,7 @@
         <v>44166</v>
       </c>
       <c r="E11" s="58">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
         <v>44166</v>
       </c>
       <c r="E12" s="58">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2613,7 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2E9560-6072-47F8-9C1B-1CD23F686466}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
